--- a/Kế Hoạch/Kehoach Import dữ liệu.xlsx
+++ b/Kế Hoạch/Kehoach Import dữ liệu.xlsx
@@ -13,18 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="Kế hoạch chi tiết" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Kế hoạch chi tiết'!$A$1:$AW$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Kế hoạch chi tiết'!$A$1:$AW$89</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Kế hoạch chi tiết'!$4:$51</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="70">
   <si>
     <t>No.</t>
     <phoneticPr fontId="3"/>
@@ -48,24 +47,6 @@
   </si>
   <si>
     <t>1-6</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>■ｷﾈｯﾄｼｱﾀｰｼｰﾃｨﾝｸﾞ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>&lt;一般席&gt;</t>
   </si>
   <si>
     <t>Chi tiết kế hoạch</t>
@@ -348,6 +329,24 @@
     <t>Số ngày</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>Màn hình menu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>Thiết kế màn hình menu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Phát triển các thành phần common cho phần mềm</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -356,9 +355,9 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
-    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,12 +413,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -432,7 +425,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,32 +444,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFC0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFC0"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF80FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF80FF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="52">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1088,21 +1057,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1127,7 +1081,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1458,148 +1412,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1917,13 +1835,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AV80"/>
+  <dimension ref="A1:AV83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="6" topLeftCell="L60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="6" topLeftCell="L56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J73" sqref="J73"/>
+      <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1944,7 +1862,7 @@
   <sheetData>
     <row r="1" spans="1:48" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1973,15 +1891,15 @@
     <row r="3" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L4" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="143" t="s">
-        <v>67</v>
+      <c r="R4" s="131" t="s">
+        <v>61</v>
       </c>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -2030,10 +1948,10 @@
       <c r="P5" s="11">
         <v>29</v>
       </c>
-      <c r="Q5" s="137">
+      <c r="Q5" s="125">
         <v>30</v>
       </c>
-      <c r="R5" s="144">
+      <c r="R5" s="132">
         <v>1</v>
       </c>
       <c r="S5" s="11">
@@ -2132,136 +2050,136 @@
         <v>0</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D6" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="121"/>
+        <v>9</v>
+      </c>
+      <c r="E6" s="144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="145"/>
       <c r="G6" s="109"/>
       <c r="H6" s="86"/>
       <c r="I6" s="106" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J6" s="94" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K6" s="60" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q6" s="138" t="s">
-        <v>65</v>
-      </c>
-      <c r="R6" s="145" t="s">
-        <v>66</v>
-      </c>
       <c r="S6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="W6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="X6" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="T6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="X6" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y6" s="17" t="s">
-        <v>66</v>
-      </c>
       <c r="Z6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE6" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AA6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD6" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE6" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF6" s="17" t="s">
-        <v>66</v>
-      </c>
       <c r="AG6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL6" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AH6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ6" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK6" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL6" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM6" s="17" t="s">
-        <v>66</v>
-      </c>
       <c r="AN6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS6" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AO6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ6" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR6" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS6" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT6" s="17" t="s">
-        <v>66</v>
-      </c>
       <c r="AU6" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AV6" s="14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.15">
@@ -2270,8 +2188,8 @@
       <c r="N7" s="20"/>
       <c r="O7" s="21"/>
       <c r="P7" s="22"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="146"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="134"/>
       <c r="S7" s="22"/>
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
@@ -2309,8 +2227,8 @@
       <c r="N8" s="28"/>
       <c r="O8" s="29"/>
       <c r="P8" s="30"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="147"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="135"/>
       <c r="S8" s="30"/>
       <c r="T8" s="27"/>
       <c r="U8" s="27"/>
@@ -2348,8 +2266,8 @@
       <c r="N9" s="28"/>
       <c r="O9" s="29"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="147"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="135"/>
       <c r="S9" s="30"/>
       <c r="T9" s="27"/>
       <c r="U9" s="27"/>
@@ -2387,8 +2305,8 @@
       <c r="N10" s="28"/>
       <c r="O10" s="29"/>
       <c r="P10" s="30"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="147"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="135"/>
       <c r="S10" s="30"/>
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
@@ -2426,8 +2344,8 @@
       <c r="N11" s="28"/>
       <c r="O11" s="29"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="147"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="135"/>
       <c r="S11" s="30"/>
       <c r="T11" s="27"/>
       <c r="U11" s="27"/>
@@ -2465,8 +2383,8 @@
       <c r="N12" s="28"/>
       <c r="O12" s="29"/>
       <c r="P12" s="30"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="147"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="135"/>
       <c r="S12" s="30"/>
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
@@ -2504,8 +2422,8 @@
       <c r="N13" s="36"/>
       <c r="O13" s="37"/>
       <c r="P13" s="38"/>
-      <c r="Q13" s="140"/>
-      <c r="R13" s="148"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="136"/>
       <c r="S13" s="38"/>
       <c r="T13" s="35"/>
       <c r="U13" s="35"/>
@@ -2543,8 +2461,8 @@
       <c r="N14" s="28"/>
       <c r="O14" s="29"/>
       <c r="P14" s="30"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="147"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="135"/>
       <c r="S14" s="30"/>
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
@@ -2582,8 +2500,8 @@
       <c r="N15" s="28"/>
       <c r="O15" s="29"/>
       <c r="P15" s="30"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="147"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="135"/>
       <c r="S15" s="30"/>
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
@@ -2621,8 +2539,8 @@
       <c r="N16" s="28"/>
       <c r="O16" s="29"/>
       <c r="P16" s="30"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="147"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="135"/>
       <c r="S16" s="30"/>
       <c r="T16" s="27"/>
       <c r="U16" s="27"/>
@@ -2660,8 +2578,8 @@
       <c r="N17" s="28"/>
       <c r="O17" s="29"/>
       <c r="P17" s="30"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="147"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="135"/>
       <c r="S17" s="30"/>
       <c r="T17" s="27"/>
       <c r="U17" s="27"/>
@@ -2699,8 +2617,8 @@
       <c r="N18" s="28"/>
       <c r="O18" s="29"/>
       <c r="P18" s="30"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="147"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="135"/>
       <c r="S18" s="30"/>
       <c r="T18" s="27"/>
       <c r="U18" s="27"/>
@@ -2738,8 +2656,8 @@
       <c r="N19" s="28"/>
       <c r="O19" s="29"/>
       <c r="P19" s="30"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="147"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="135"/>
       <c r="S19" s="30"/>
       <c r="T19" s="27"/>
       <c r="U19" s="27"/>
@@ -2777,8 +2695,8 @@
       <c r="N20" s="28"/>
       <c r="O20" s="29"/>
       <c r="P20" s="30"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="147"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="135"/>
       <c r="S20" s="30"/>
       <c r="T20" s="27"/>
       <c r="U20" s="27"/>
@@ -2816,8 +2734,8 @@
       <c r="N21" s="28"/>
       <c r="O21" s="29"/>
       <c r="P21" s="30"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="147"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="135"/>
       <c r="S21" s="30"/>
       <c r="T21" s="27"/>
       <c r="U21" s="27"/>
@@ -2856,7 +2774,7 @@
       <c r="O22" s="45"/>
       <c r="P22" s="46"/>
       <c r="Q22" s="67"/>
-      <c r="R22" s="149"/>
+      <c r="R22" s="137"/>
       <c r="S22" s="46"/>
       <c r="T22" s="43"/>
       <c r="U22" s="43"/>
@@ -2894,8 +2812,8 @@
       <c r="N23" s="36"/>
       <c r="O23" s="37"/>
       <c r="P23" s="38"/>
-      <c r="Q23" s="140"/>
-      <c r="R23" s="148"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="136"/>
       <c r="S23" s="38"/>
       <c r="T23" s="35"/>
       <c r="U23" s="35"/>
@@ -2933,8 +2851,8 @@
       <c r="N24" s="28"/>
       <c r="O24" s="29"/>
       <c r="P24" s="30"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="147"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="135"/>
       <c r="S24" s="30"/>
       <c r="T24" s="27"/>
       <c r="U24" s="27"/>
@@ -2972,8 +2890,8 @@
       <c r="N25" s="28"/>
       <c r="O25" s="29"/>
       <c r="P25" s="30"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="147"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="135"/>
       <c r="S25" s="30"/>
       <c r="T25" s="27"/>
       <c r="U25" s="27"/>
@@ -3011,8 +2929,8 @@
       <c r="N26" s="28"/>
       <c r="O26" s="29"/>
       <c r="P26" s="30"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="147"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="135"/>
       <c r="S26" s="30"/>
       <c r="T26" s="27"/>
       <c r="U26" s="27"/>
@@ -3050,8 +2968,8 @@
       <c r="N27" s="28"/>
       <c r="O27" s="29"/>
       <c r="P27" s="30"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="147"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="135"/>
       <c r="S27" s="30"/>
       <c r="T27" s="27"/>
       <c r="U27" s="27"/>
@@ -3089,8 +3007,8 @@
       <c r="N28" s="28"/>
       <c r="O28" s="29"/>
       <c r="P28" s="30"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="147"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="135"/>
       <c r="S28" s="30"/>
       <c r="T28" s="27"/>
       <c r="U28" s="27"/>
@@ -3129,7 +3047,7 @@
       <c r="O29" s="45"/>
       <c r="P29" s="46"/>
       <c r="Q29" s="67"/>
-      <c r="R29" s="149"/>
+      <c r="R29" s="137"/>
       <c r="S29" s="46"/>
       <c r="T29" s="43"/>
       <c r="U29" s="43"/>
@@ -3167,8 +3085,8 @@
       <c r="N30" s="36"/>
       <c r="O30" s="37"/>
       <c r="P30" s="38"/>
-      <c r="Q30" s="140"/>
-      <c r="R30" s="148"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="136"/>
       <c r="S30" s="38"/>
       <c r="T30" s="35"/>
       <c r="U30" s="35"/>
@@ -3206,8 +3124,8 @@
       <c r="N31" s="28"/>
       <c r="O31" s="29"/>
       <c r="P31" s="30"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="147"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="135"/>
       <c r="S31" s="30"/>
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
@@ -3245,8 +3163,8 @@
       <c r="N32" s="28"/>
       <c r="O32" s="29"/>
       <c r="P32" s="30"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="147"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="135"/>
       <c r="S32" s="30"/>
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
@@ -3284,8 +3202,8 @@
       <c r="N33" s="28"/>
       <c r="O33" s="29"/>
       <c r="P33" s="30"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="147"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="135"/>
       <c r="S33" s="30"/>
       <c r="T33" s="27"/>
       <c r="U33" s="27"/>
@@ -3323,8 +3241,8 @@
       <c r="N34" s="28"/>
       <c r="O34" s="29"/>
       <c r="P34" s="30"/>
-      <c r="Q34" s="123"/>
-      <c r="R34" s="147"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="135"/>
       <c r="S34" s="30"/>
       <c r="T34" s="27"/>
       <c r="U34" s="27"/>
@@ -3362,8 +3280,8 @@
       <c r="N35" s="28"/>
       <c r="O35" s="29"/>
       <c r="P35" s="30"/>
-      <c r="Q35" s="123"/>
-      <c r="R35" s="147"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="135"/>
       <c r="S35" s="30"/>
       <c r="T35" s="27"/>
       <c r="U35" s="27"/>
@@ -3402,7 +3320,7 @@
       <c r="O36" s="45"/>
       <c r="P36" s="46"/>
       <c r="Q36" s="67"/>
-      <c r="R36" s="149"/>
+      <c r="R36" s="137"/>
       <c r="S36" s="46"/>
       <c r="T36" s="43"/>
       <c r="U36" s="43"/>
@@ -3440,8 +3358,8 @@
       <c r="N37" s="36"/>
       <c r="O37" s="37"/>
       <c r="P37" s="38"/>
-      <c r="Q37" s="140"/>
-      <c r="R37" s="148"/>
+      <c r="Q37" s="128"/>
+      <c r="R37" s="136"/>
       <c r="S37" s="38"/>
       <c r="T37" s="35"/>
       <c r="U37" s="35"/>
@@ -3479,8 +3397,8 @@
       <c r="N38" s="28"/>
       <c r="O38" s="29"/>
       <c r="P38" s="30"/>
-      <c r="Q38" s="123"/>
-      <c r="R38" s="147"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="135"/>
       <c r="S38" s="30"/>
       <c r="T38" s="27"/>
       <c r="U38" s="27"/>
@@ -3518,8 +3436,8 @@
       <c r="N39" s="28"/>
       <c r="O39" s="29"/>
       <c r="P39" s="30"/>
-      <c r="Q39" s="123"/>
-      <c r="R39" s="147"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="135"/>
       <c r="S39" s="30"/>
       <c r="T39" s="27"/>
       <c r="U39" s="27"/>
@@ -3557,8 +3475,8 @@
       <c r="N40" s="28"/>
       <c r="O40" s="29"/>
       <c r="P40" s="30"/>
-      <c r="Q40" s="123"/>
-      <c r="R40" s="147"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="135"/>
       <c r="S40" s="30"/>
       <c r="T40" s="27"/>
       <c r="U40" s="27"/>
@@ -3596,8 +3514,8 @@
       <c r="N41" s="28"/>
       <c r="O41" s="29"/>
       <c r="P41" s="30"/>
-      <c r="Q41" s="123"/>
-      <c r="R41" s="147"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="135"/>
       <c r="S41" s="30"/>
       <c r="T41" s="27"/>
       <c r="U41" s="27"/>
@@ -3635,8 +3553,8 @@
       <c r="N42" s="28"/>
       <c r="O42" s="29"/>
       <c r="P42" s="30"/>
-      <c r="Q42" s="123"/>
-      <c r="R42" s="147"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="135"/>
       <c r="S42" s="30"/>
       <c r="T42" s="27"/>
       <c r="U42" s="27"/>
@@ -3675,7 +3593,7 @@
       <c r="O43" s="45"/>
       <c r="P43" s="46"/>
       <c r="Q43" s="67"/>
-      <c r="R43" s="149"/>
+      <c r="R43" s="137"/>
       <c r="S43" s="46"/>
       <c r="T43" s="43"/>
       <c r="U43" s="43"/>
@@ -3713,8 +3631,8 @@
       <c r="N44" s="28"/>
       <c r="O44" s="29"/>
       <c r="P44" s="30"/>
-      <c r="Q44" s="123"/>
-      <c r="R44" s="147"/>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="135"/>
       <c r="S44" s="30"/>
       <c r="T44" s="27"/>
       <c r="U44" s="27"/>
@@ -3752,8 +3670,8 @@
       <c r="N45" s="28"/>
       <c r="O45" s="29"/>
       <c r="P45" s="30"/>
-      <c r="Q45" s="123"/>
-      <c r="R45" s="147"/>
+      <c r="Q45" s="111"/>
+      <c r="R45" s="135"/>
       <c r="S45" s="30"/>
       <c r="T45" s="27"/>
       <c r="U45" s="27"/>
@@ -3791,8 +3709,8 @@
       <c r="N46" s="28"/>
       <c r="O46" s="29"/>
       <c r="P46" s="30"/>
-      <c r="Q46" s="123"/>
-      <c r="R46" s="147"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="135"/>
       <c r="S46" s="30"/>
       <c r="T46" s="27"/>
       <c r="U46" s="27"/>
@@ -3830,8 +3748,8 @@
       <c r="N47" s="28"/>
       <c r="O47" s="29"/>
       <c r="P47" s="30"/>
-      <c r="Q47" s="123"/>
-      <c r="R47" s="147"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="135"/>
       <c r="S47" s="30"/>
       <c r="T47" s="27"/>
       <c r="U47" s="27"/>
@@ -3869,8 +3787,8 @@
       <c r="N48" s="28"/>
       <c r="O48" s="29"/>
       <c r="P48" s="30"/>
-      <c r="Q48" s="123"/>
-      <c r="R48" s="147"/>
+      <c r="Q48" s="111"/>
+      <c r="R48" s="135"/>
       <c r="S48" s="30"/>
       <c r="T48" s="27"/>
       <c r="U48" s="27"/>
@@ -3908,8 +3826,8 @@
       <c r="N49" s="28"/>
       <c r="O49" s="29"/>
       <c r="P49" s="30"/>
-      <c r="Q49" s="123"/>
-      <c r="R49" s="147"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="135"/>
       <c r="S49" s="30"/>
       <c r="T49" s="27"/>
       <c r="U49" s="27"/>
@@ -3947,8 +3865,8 @@
       <c r="N50" s="53"/>
       <c r="O50" s="54"/>
       <c r="P50" s="55"/>
-      <c r="Q50" s="141"/>
-      <c r="R50" s="150"/>
+      <c r="Q50" s="129"/>
+      <c r="R50" s="138"/>
       <c r="S50" s="55"/>
       <c r="T50" s="52"/>
       <c r="U50" s="52"/>
@@ -3985,25 +3903,25 @@
         <v>0</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D51" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="121"/>
+        <v>9</v>
+      </c>
+      <c r="E51" s="144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="145"/>
       <c r="G51" s="109"/>
       <c r="H51" s="86"/>
       <c r="I51" s="106" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J51" s="94" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K51" s="60" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L51" s="61" t="s">
         <v>1</v>
@@ -4106,8 +4024,9 @@
       <c r="I52" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="J52" s="155">
-        <v>17.3</v>
+      <c r="J52" s="143">
+        <f>J60+J68+J77+J79+J53</f>
+        <v>18.100000000000001</v>
       </c>
       <c r="K52" s="83"/>
       <c r="L52" s="57"/>
@@ -4115,8 +4034,8 @@
       <c r="N52" s="53"/>
       <c r="O52" s="54"/>
       <c r="P52" s="55"/>
-      <c r="Q52" s="141"/>
-      <c r="R52" s="150"/>
+      <c r="Q52" s="129"/>
+      <c r="R52" s="138"/>
       <c r="S52" s="55"/>
       <c r="T52" s="52"/>
       <c r="U52" s="52"/>
@@ -4155,13 +4074,14 @@
       </c>
       <c r="D53" s="100"/>
       <c r="E53" s="81" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F53" s="90"/>
       <c r="G53" s="90"/>
       <c r="H53" s="82"/>
       <c r="I53" s="107"/>
-      <c r="J53" s="154">
+      <c r="J53" s="142">
+        <f>SUM(J54:J59)</f>
         <v>1.8</v>
       </c>
       <c r="K53" s="83"/>
@@ -4170,8 +4090,8 @@
       <c r="N53" s="53"/>
       <c r="O53" s="54"/>
       <c r="P53" s="55"/>
-      <c r="Q53" s="141"/>
-      <c r="R53" s="150"/>
+      <c r="Q53" s="129"/>
+      <c r="R53" s="138"/>
       <c r="S53" s="55"/>
       <c r="T53" s="52"/>
       <c r="U53" s="52"/>
@@ -4204,33 +4124,33 @@
       <c r="AV53" s="56"/>
     </row>
     <row r="54" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="126" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="127">
+      <c r="B54" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="115">
         <v>1</v>
       </c>
-      <c r="D54" s="128"/>
+      <c r="D54" s="116"/>
       <c r="E54" s="50"/>
-      <c r="F54" s="129" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="129"/>
+      <c r="F54" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="117"/>
       <c r="H54" s="49"/>
-      <c r="I54" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J54" s="153">
+      <c r="I54" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J54" s="141">
         <v>0.3</v>
       </c>
-      <c r="K54" s="131"/>
+      <c r="K54" s="119"/>
       <c r="L54" s="57"/>
       <c r="M54" s="52"/>
       <c r="N54" s="53"/>
       <c r="O54" s="54"/>
       <c r="P54" s="55"/>
-      <c r="Q54" s="141"/>
-      <c r="R54" s="150"/>
+      <c r="Q54" s="129"/>
+      <c r="R54" s="138"/>
       <c r="S54" s="55"/>
       <c r="T54" s="52"/>
       <c r="U54" s="52"/>
@@ -4263,33 +4183,33 @@
       <c r="AV54" s="56"/>
     </row>
     <row r="55" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="126" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" s="127">
+      <c r="B55" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="115">
         <v>1</v>
       </c>
-      <c r="D55" s="128"/>
+      <c r="D55" s="116"/>
       <c r="E55" s="50"/>
-      <c r="F55" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="129"/>
+      <c r="F55" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="117"/>
       <c r="H55" s="49"/>
-      <c r="I55" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J55" s="153">
+      <c r="I55" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J55" s="141">
         <v>0.3</v>
       </c>
-      <c r="K55" s="131"/>
+      <c r="K55" s="119"/>
       <c r="L55" s="57"/>
       <c r="M55" s="52"/>
       <c r="N55" s="53"/>
       <c r="O55" s="54"/>
       <c r="P55" s="55"/>
-      <c r="Q55" s="141"/>
-      <c r="R55" s="150"/>
+      <c r="Q55" s="129"/>
+      <c r="R55" s="138"/>
       <c r="S55" s="55"/>
       <c r="T55" s="52"/>
       <c r="U55" s="52"/>
@@ -4322,33 +4242,33 @@
       <c r="AV55" s="52"/>
     </row>
     <row r="56" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="126" t="s">
+      <c r="B56" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="127">
+      <c r="C56" s="115">
         <v>1</v>
       </c>
-      <c r="D56" s="128"/>
+      <c r="D56" s="116"/>
       <c r="E56" s="50"/>
-      <c r="F56" s="129" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="129"/>
+      <c r="F56" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="117"/>
       <c r="H56" s="49"/>
-      <c r="I56" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J56" s="153">
+      <c r="I56" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56" s="141">
         <v>0.3</v>
       </c>
-      <c r="K56" s="131"/>
+      <c r="K56" s="119"/>
       <c r="L56" s="57"/>
       <c r="M56" s="52"/>
       <c r="N56" s="53"/>
       <c r="O56" s="54"/>
       <c r="P56" s="55"/>
-      <c r="Q56" s="141"/>
-      <c r="R56" s="150"/>
+      <c r="Q56" s="129"/>
+      <c r="R56" s="138"/>
       <c r="S56" s="55"/>
       <c r="T56" s="52"/>
       <c r="U56" s="52"/>
@@ -4381,33 +4301,33 @@
       <c r="AV56" s="52"/>
     </row>
     <row r="57" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="126" t="s">
+      <c r="B57" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="127">
+      <c r="C57" s="115">
         <v>1</v>
       </c>
-      <c r="D57" s="128"/>
+      <c r="D57" s="116"/>
       <c r="E57" s="50"/>
-      <c r="F57" s="129" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" s="129"/>
+      <c r="F57" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="117"/>
       <c r="H57" s="49"/>
-      <c r="I57" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J57" s="153">
+      <c r="I57" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J57" s="141">
         <v>0.3</v>
       </c>
-      <c r="K57" s="131"/>
+      <c r="K57" s="119"/>
       <c r="L57" s="57"/>
       <c r="M57" s="52"/>
       <c r="N57" s="53"/>
       <c r="O57" s="54"/>
       <c r="P57" s="55"/>
-      <c r="Q57" s="141"/>
-      <c r="R57" s="150"/>
+      <c r="Q57" s="129"/>
+      <c r="R57" s="138"/>
       <c r="S57" s="55"/>
       <c r="T57" s="52"/>
       <c r="U57" s="52"/>
@@ -4440,33 +4360,33 @@
       <c r="AV57" s="52"/>
     </row>
     <row r="58" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="126" t="s">
+      <c r="B58" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="127">
+      <c r="C58" s="115">
         <v>1</v>
       </c>
-      <c r="D58" s="128"/>
+      <c r="D58" s="116"/>
       <c r="E58" s="50"/>
-      <c r="F58" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" s="129"/>
+      <c r="F58" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="117"/>
       <c r="H58" s="49"/>
-      <c r="I58" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J58" s="153">
+      <c r="I58" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J58" s="141">
         <v>0.3</v>
       </c>
-      <c r="K58" s="131"/>
+      <c r="K58" s="119"/>
       <c r="L58" s="57"/>
       <c r="M58" s="52"/>
       <c r="N58" s="53"/>
       <c r="O58" s="54"/>
       <c r="P58" s="55"/>
-      <c r="Q58" s="141"/>
-      <c r="R58" s="150"/>
+      <c r="Q58" s="129"/>
+      <c r="R58" s="138"/>
       <c r="S58" s="55"/>
       <c r="T58" s="52"/>
       <c r="U58" s="52"/>
@@ -4499,33 +4419,33 @@
       <c r="AV58" s="52"/>
     </row>
     <row r="59" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="126" t="s">
+      <c r="B59" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="127">
+      <c r="C59" s="115">
         <v>1</v>
       </c>
-      <c r="D59" s="128"/>
+      <c r="D59" s="116"/>
       <c r="E59" s="50"/>
-      <c r="F59" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" s="129"/>
+      <c r="F59" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="117"/>
       <c r="H59" s="49"/>
-      <c r="I59" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J59" s="153">
+      <c r="I59" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J59" s="141">
         <v>0.3</v>
       </c>
-      <c r="K59" s="131"/>
+      <c r="K59" s="119"/>
       <c r="L59" s="57"/>
       <c r="M59" s="52"/>
       <c r="N59" s="53"/>
       <c r="O59" s="54"/>
       <c r="P59" s="55"/>
-      <c r="Q59" s="141"/>
-      <c r="R59" s="150"/>
+      <c r="Q59" s="129"/>
+      <c r="R59" s="138"/>
       <c r="S59" s="55"/>
       <c r="T59" s="52"/>
       <c r="U59" s="52"/>
@@ -4564,7 +4484,7 @@
       </c>
       <c r="D60" s="101"/>
       <c r="E60" s="84" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F60" s="92"/>
       <c r="G60" s="92"/>
@@ -4572,8 +4492,9 @@
       <c r="I60" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="J60" s="154">
-        <v>3</v>
+      <c r="J60" s="142">
+        <f>SUM(J61:J67)</f>
+        <v>3.5</v>
       </c>
       <c r="K60" s="83"/>
       <c r="L60" s="57"/>
@@ -4581,8 +4502,8 @@
       <c r="N60" s="53"/>
       <c r="O60" s="54"/>
       <c r="P60" s="55"/>
-      <c r="Q60" s="141"/>
-      <c r="R60" s="150"/>
+      <c r="Q60" s="129"/>
+      <c r="R60" s="138"/>
       <c r="S60" s="55"/>
       <c r="T60" s="52"/>
       <c r="U60" s="52"/>
@@ -4615,33 +4536,33 @@
       <c r="AV60" s="52"/>
     </row>
     <row r="61" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="126" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="127">
+      <c r="B61" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="115">
         <v>2</v>
       </c>
-      <c r="D61" s="128"/>
+      <c r="D61" s="116"/>
       <c r="E61" s="50"/>
-      <c r="F61" s="129" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="129"/>
+      <c r="F61" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="117"/>
       <c r="H61" s="49"/>
-      <c r="I61" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J61" s="153">
+      <c r="I61" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J61" s="141">
         <v>0.5</v>
       </c>
-      <c r="K61" s="131"/>
+      <c r="K61" s="119"/>
       <c r="L61" s="57"/>
       <c r="M61" s="52"/>
       <c r="N61" s="53"/>
       <c r="O61" s="54"/>
       <c r="P61" s="55"/>
-      <c r="Q61" s="141"/>
-      <c r="R61" s="150"/>
+      <c r="Q61" s="129"/>
+      <c r="R61" s="138"/>
       <c r="S61" s="55"/>
       <c r="T61" s="52"/>
       <c r="U61" s="52"/>
@@ -4674,33 +4595,33 @@
       <c r="AV61" s="52"/>
     </row>
     <row r="62" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="127">
+      <c r="B62" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="115">
         <v>2</v>
       </c>
-      <c r="D62" s="132"/>
-      <c r="E62" s="133"/>
-      <c r="F62" s="134" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" s="134"/>
-      <c r="H62" s="135"/>
-      <c r="I62" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J62" s="153">
+      <c r="D62" s="120"/>
+      <c r="E62" s="121"/>
+      <c r="F62" s="122" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="122"/>
+      <c r="H62" s="123"/>
+      <c r="I62" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J62" s="141">
         <v>0.5</v>
       </c>
-      <c r="K62" s="131"/>
+      <c r="K62" s="119"/>
       <c r="L62" s="57"/>
       <c r="M62" s="52"/>
       <c r="N62" s="53"/>
       <c r="O62" s="54"/>
       <c r="P62" s="55"/>
-      <c r="Q62" s="141"/>
-      <c r="R62" s="150"/>
+      <c r="Q62" s="129"/>
+      <c r="R62" s="138"/>
       <c r="S62" s="55"/>
       <c r="T62" s="52"/>
       <c r="U62" s="52"/>
@@ -4733,33 +4654,29 @@
       <c r="AV62" s="56"/>
     </row>
     <row r="63" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="126" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="127">
-        <v>2</v>
-      </c>
-      <c r="D63" s="128"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="116"/>
       <c r="E63" s="50"/>
-      <c r="F63" s="129" t="s">
-        <v>33</v>
-      </c>
-      <c r="G63" s="129"/>
+      <c r="F63" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="G63" s="117"/>
       <c r="H63" s="49"/>
-      <c r="I63" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J63" s="153">
+      <c r="I63" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J63" s="141">
         <v>0.5</v>
       </c>
-      <c r="K63" s="131"/>
+      <c r="K63" s="119"/>
       <c r="L63" s="57"/>
       <c r="M63" s="52"/>
       <c r="N63" s="53"/>
       <c r="O63" s="54"/>
       <c r="P63" s="55"/>
-      <c r="Q63" s="141"/>
-      <c r="R63" s="150"/>
+      <c r="Q63" s="129"/>
+      <c r="R63" s="138"/>
       <c r="S63" s="55"/>
       <c r="T63" s="52"/>
       <c r="U63" s="52"/>
@@ -4792,33 +4709,33 @@
       <c r="AV63" s="56"/>
     </row>
     <row r="64" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="126" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" s="136">
+      <c r="B64" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="115">
         <v>2</v>
       </c>
-      <c r="D64" s="132"/>
-      <c r="E64" s="133"/>
-      <c r="F64" s="134" t="s">
-        <v>34</v>
-      </c>
-      <c r="G64" s="134"/>
-      <c r="H64" s="135"/>
-      <c r="I64" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J64" s="153">
+      <c r="D64" s="116"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="117"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J64" s="141">
         <v>0.5</v>
       </c>
-      <c r="K64" s="37"/>
+      <c r="K64" s="119"/>
       <c r="L64" s="57"/>
       <c r="M64" s="52"/>
       <c r="N64" s="53"/>
       <c r="O64" s="54"/>
       <c r="P64" s="55"/>
-      <c r="Q64" s="141"/>
-      <c r="R64" s="150"/>
+      <c r="Q64" s="129"/>
+      <c r="R64" s="138"/>
       <c r="S64" s="55"/>
       <c r="T64" s="52"/>
       <c r="U64" s="52"/>
@@ -4851,23 +4768,23 @@
       <c r="AV64" s="56"/>
     </row>
     <row r="65" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="126" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65" s="136">
+      <c r="B65" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="124">
         <v>2</v>
       </c>
-      <c r="D65" s="132"/>
-      <c r="E65" s="133"/>
-      <c r="F65" s="134" t="s">
-        <v>35</v>
-      </c>
-      <c r="G65" s="134"/>
-      <c r="H65" s="135"/>
-      <c r="I65" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J65" s="153">
+      <c r="D65" s="120"/>
+      <c r="E65" s="121"/>
+      <c r="F65" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="122"/>
+      <c r="H65" s="123"/>
+      <c r="I65" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J65" s="141">
         <v>0.5</v>
       </c>
       <c r="K65" s="37"/>
@@ -4876,8 +4793,8 @@
       <c r="N65" s="53"/>
       <c r="O65" s="54"/>
       <c r="P65" s="55"/>
-      <c r="Q65" s="141"/>
-      <c r="R65" s="150"/>
+      <c r="Q65" s="129"/>
+      <c r="R65" s="138"/>
       <c r="S65" s="55"/>
       <c r="T65" s="52"/>
       <c r="U65" s="52"/>
@@ -4910,23 +4827,23 @@
       <c r="AV65" s="56"/>
     </row>
     <row r="66" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="126" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="136">
+      <c r="B66" s="114" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="124">
         <v>2</v>
       </c>
-      <c r="D66" s="132"/>
-      <c r="E66" s="133"/>
-      <c r="F66" s="134" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" s="134"/>
-      <c r="H66" s="135"/>
-      <c r="I66" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J66" s="153">
+      <c r="D66" s="120"/>
+      <c r="E66" s="121"/>
+      <c r="F66" s="122" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="122"/>
+      <c r="H66" s="123"/>
+      <c r="I66" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J66" s="141">
         <v>0.5</v>
       </c>
       <c r="K66" s="37"/>
@@ -4935,8 +4852,8 @@
       <c r="N66" s="53"/>
       <c r="O66" s="54"/>
       <c r="P66" s="55"/>
-      <c r="Q66" s="141"/>
-      <c r="R66" s="150"/>
+      <c r="Q66" s="129"/>
+      <c r="R66" s="138"/>
       <c r="S66" s="55"/>
       <c r="T66" s="52"/>
       <c r="U66" s="52"/>
@@ -4969,31 +4886,33 @@
       <c r="AV66" s="56"/>
     </row>
     <row r="67" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="79"/>
-      <c r="C67" s="80">
-        <v>3</v>
-      </c>
-      <c r="D67" s="101"/>
-      <c r="E67" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67" s="92"/>
-      <c r="G67" s="92"/>
-      <c r="H67" s="85"/>
-      <c r="I67" s="107" t="s">
+      <c r="B67" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="124">
         <v>2</v>
       </c>
-      <c r="J67" s="154">
-        <v>11</v>
-      </c>
-      <c r="K67" s="83"/>
+      <c r="D67" s="120"/>
+      <c r="E67" s="121"/>
+      <c r="F67" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="122"/>
+      <c r="H67" s="123"/>
+      <c r="I67" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J67" s="141">
+        <v>0.5</v>
+      </c>
+      <c r="K67" s="37"/>
       <c r="L67" s="57"/>
       <c r="M67" s="52"/>
       <c r="N67" s="53"/>
       <c r="O67" s="54"/>
       <c r="P67" s="55"/>
-      <c r="Q67" s="141"/>
-      <c r="R67" s="150"/>
+      <c r="Q67" s="129"/>
+      <c r="R67" s="138"/>
       <c r="S67" s="55"/>
       <c r="T67" s="52"/>
       <c r="U67" s="52"/>
@@ -5026,33 +4945,32 @@
       <c r="AV67" s="56"/>
     </row>
     <row r="68" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="126" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" s="127">
+      <c r="B68" s="79"/>
+      <c r="C68" s="80">
         <v>3</v>
       </c>
-      <c r="D68" s="102"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="129" t="s">
-        <v>42</v>
-      </c>
-      <c r="G68" s="129"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J68" s="153">
-        <v>0.5</v>
-      </c>
-      <c r="K68" s="38"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68" s="92"/>
+      <c r="G68" s="92"/>
+      <c r="H68" s="85"/>
+      <c r="I68" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="J68" s="142">
+        <f>SUM(J69:J76)</f>
+        <v>11.3</v>
+      </c>
+      <c r="K68" s="83"/>
       <c r="L68" s="57"/>
       <c r="M68" s="52"/>
       <c r="N68" s="53"/>
       <c r="O68" s="54"/>
       <c r="P68" s="55"/>
-      <c r="Q68" s="141"/>
-      <c r="R68" s="150"/>
+      <c r="Q68" s="129"/>
+      <c r="R68" s="138"/>
       <c r="S68" s="55"/>
       <c r="T68" s="52"/>
       <c r="U68" s="52"/>
@@ -5085,24 +5003,24 @@
       <c r="AV68" s="56"/>
     </row>
     <row r="69" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" s="127">
+      <c r="B69" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="115">
         <v>3</v>
       </c>
       <c r="D69" s="102"/>
       <c r="E69" s="65"/>
-      <c r="F69" s="134" t="s">
-        <v>43</v>
-      </c>
-      <c r="G69" s="134"/>
-      <c r="H69" s="135"/>
-      <c r="I69" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J69" s="153">
-        <v>0.5</v>
+      <c r="F69" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="G69" s="117"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J69" s="141">
+        <v>2</v>
       </c>
       <c r="K69" s="38"/>
       <c r="L69" s="57"/>
@@ -5110,8 +5028,8 @@
       <c r="N69" s="53"/>
       <c r="O69" s="54"/>
       <c r="P69" s="55"/>
-      <c r="Q69" s="141"/>
-      <c r="R69" s="150"/>
+      <c r="Q69" s="129"/>
+      <c r="R69" s="138"/>
       <c r="S69" s="55"/>
       <c r="T69" s="52"/>
       <c r="U69" s="52"/>
@@ -5144,24 +5062,24 @@
       <c r="AV69" s="56"/>
     </row>
     <row r="70" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="126" t="s">
-        <v>50</v>
-      </c>
-      <c r="C70" s="127">
+      <c r="B70" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="115">
         <v>3</v>
       </c>
       <c r="D70" s="102"/>
       <c r="E70" s="65"/>
-      <c r="F70" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="G70" s="134"/>
-      <c r="H70" s="135"/>
-      <c r="I70" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J70" s="153">
-        <v>1</v>
+      <c r="F70" s="117" t="s">
+        <v>66</v>
+      </c>
+      <c r="G70" s="117"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J70" s="141">
+        <v>0.3</v>
       </c>
       <c r="K70" s="38"/>
       <c r="L70" s="57"/>
@@ -5169,8 +5087,8 @@
       <c r="N70" s="53"/>
       <c r="O70" s="54"/>
       <c r="P70" s="55"/>
-      <c r="Q70" s="141"/>
-      <c r="R70" s="150"/>
+      <c r="Q70" s="129"/>
+      <c r="R70" s="138"/>
       <c r="S70" s="55"/>
       <c r="T70" s="52"/>
       <c r="U70" s="52"/>
@@ -5203,24 +5121,24 @@
       <c r="AV70" s="56"/>
     </row>
     <row r="71" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" s="127">
+      <c r="B71" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="115">
         <v>3</v>
       </c>
       <c r="D71" s="102"/>
       <c r="E71" s="65"/>
-      <c r="F71" s="134" t="s">
-        <v>45</v>
-      </c>
-      <c r="G71" s="134"/>
-      <c r="H71" s="135"/>
-      <c r="I71" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J71" s="153">
-        <v>1</v>
+      <c r="F71" s="117" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" s="117"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J71" s="141">
+        <v>0.5</v>
       </c>
       <c r="K71" s="38"/>
       <c r="L71" s="57"/>
@@ -5228,8 +5146,8 @@
       <c r="N71" s="53"/>
       <c r="O71" s="54"/>
       <c r="P71" s="55"/>
-      <c r="Q71" s="141"/>
-      <c r="R71" s="150"/>
+      <c r="Q71" s="129"/>
+      <c r="R71" s="138"/>
       <c r="S71" s="55"/>
       <c r="T71" s="52"/>
       <c r="U71" s="52"/>
@@ -5262,24 +5180,24 @@
       <c r="AV71" s="56"/>
     </row>
     <row r="72" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="126" t="s">
-        <v>52</v>
-      </c>
-      <c r="C72" s="127">
+      <c r="B72" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="115">
         <v>3</v>
       </c>
       <c r="D72" s="102"/>
       <c r="E72" s="65"/>
-      <c r="F72" s="129" t="s">
-        <v>46</v>
-      </c>
-      <c r="G72" s="129"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J72" s="153">
-        <v>4</v>
+      <c r="F72" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="G72" s="122"/>
+      <c r="H72" s="123"/>
+      <c r="I72" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J72" s="141">
+        <v>0.5</v>
       </c>
       <c r="K72" s="38"/>
       <c r="L72" s="57"/>
@@ -5287,8 +5205,8 @@
       <c r="N72" s="53"/>
       <c r="O72" s="54"/>
       <c r="P72" s="55"/>
-      <c r="Q72" s="141"/>
-      <c r="R72" s="150"/>
+      <c r="Q72" s="129"/>
+      <c r="R72" s="138"/>
       <c r="S72" s="55"/>
       <c r="T72" s="52"/>
       <c r="U72" s="52"/>
@@ -5321,24 +5239,24 @@
       <c r="AV72" s="56"/>
     </row>
     <row r="73" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="126" t="s">
-        <v>53</v>
-      </c>
-      <c r="C73" s="127">
+      <c r="B73" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="115">
         <v>3</v>
       </c>
       <c r="D73" s="102"/>
       <c r="E73" s="65"/>
-      <c r="F73" s="134" t="s">
-        <v>47</v>
-      </c>
-      <c r="G73" s="134"/>
-      <c r="H73" s="135"/>
-      <c r="I73" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J73" s="153">
-        <v>4</v>
+      <c r="F73" s="122" t="s">
+        <v>38</v>
+      </c>
+      <c r="G73" s="122"/>
+      <c r="H73" s="123"/>
+      <c r="I73" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J73" s="141">
+        <v>1</v>
       </c>
       <c r="K73" s="38"/>
       <c r="L73" s="57"/>
@@ -5346,8 +5264,8 @@
       <c r="N73" s="53"/>
       <c r="O73" s="54"/>
       <c r="P73" s="55"/>
-      <c r="Q73" s="141"/>
-      <c r="R73" s="150"/>
+      <c r="Q73" s="129"/>
+      <c r="R73" s="138"/>
       <c r="S73" s="55"/>
       <c r="T73" s="52"/>
       <c r="U73" s="52"/>
@@ -5380,31 +5298,33 @@
       <c r="AV73" s="56"/>
     </row>
     <row r="74" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="79"/>
-      <c r="C74" s="80">
-        <v>4</v>
-      </c>
-      <c r="D74" s="101"/>
-      <c r="E74" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="F74" s="92"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="J74" s="154">
+      <c r="B74" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="115">
+        <v>3</v>
+      </c>
+      <c r="D74" s="102"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" s="122"/>
+      <c r="H74" s="123"/>
+      <c r="I74" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J74" s="141">
         <v>1</v>
       </c>
-      <c r="K74" s="83"/>
+      <c r="K74" s="38"/>
       <c r="L74" s="57"/>
       <c r="M74" s="52"/>
       <c r="N74" s="53"/>
       <c r="O74" s="54"/>
       <c r="P74" s="55"/>
-      <c r="Q74" s="141"/>
-      <c r="R74" s="150"/>
+      <c r="Q74" s="129"/>
+      <c r="R74" s="138"/>
       <c r="S74" s="55"/>
       <c r="T74" s="52"/>
       <c r="U74" s="52"/>
@@ -5437,24 +5357,24 @@
       <c r="AV74" s="56"/>
     </row>
     <row r="75" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="126" t="s">
-        <v>57</v>
-      </c>
-      <c r="C75" s="122">
-        <v>4</v>
+      <c r="B75" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="115">
+        <v>3</v>
       </c>
       <c r="D75" s="102"/>
       <c r="E75" s="65"/>
-      <c r="F75" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="G75" s="91"/>
-      <c r="H75" s="66"/>
-      <c r="I75" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="J75" s="153">
-        <v>1</v>
+      <c r="F75" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="G75" s="117"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J75" s="141">
+        <v>3</v>
       </c>
       <c r="K75" s="38"/>
       <c r="L75" s="57"/>
@@ -5462,8 +5382,8 @@
       <c r="N75" s="53"/>
       <c r="O75" s="54"/>
       <c r="P75" s="55"/>
-      <c r="Q75" s="141"/>
-      <c r="R75" s="150"/>
+      <c r="Q75" s="129"/>
+      <c r="R75" s="138"/>
       <c r="S75" s="55"/>
       <c r="T75" s="52"/>
       <c r="U75" s="52"/>
@@ -5496,31 +5416,33 @@
       <c r="AV75" s="56"/>
     </row>
     <row r="76" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="79"/>
-      <c r="C76" s="80">
-        <v>5</v>
-      </c>
-      <c r="D76" s="101"/>
-      <c r="E76" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F76" s="92"/>
-      <c r="G76" s="92"/>
-      <c r="H76" s="85"/>
-      <c r="I76" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="J76" s="154">
-        <v>0.5</v>
-      </c>
-      <c r="K76" s="83"/>
+      <c r="B76" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" s="115">
+        <v>3</v>
+      </c>
+      <c r="D76" s="102"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="122" t="s">
+        <v>41</v>
+      </c>
+      <c r="G76" s="122"/>
+      <c r="H76" s="123"/>
+      <c r="I76" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J76" s="141">
+        <v>3</v>
+      </c>
+      <c r="K76" s="38"/>
       <c r="L76" s="57"/>
       <c r="M76" s="52"/>
       <c r="N76" s="53"/>
       <c r="O76" s="54"/>
       <c r="P76" s="55"/>
-      <c r="Q76" s="141"/>
-      <c r="R76" s="150"/>
+      <c r="Q76" s="129"/>
+      <c r="R76" s="138"/>
       <c r="S76" s="55"/>
       <c r="T76" s="52"/>
       <c r="U76" s="52"/>
@@ -5553,31 +5475,31 @@
       <c r="AV76" s="56"/>
     </row>
     <row r="77" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="126" t="s">
-        <v>58</v>
-      </c>
-      <c r="C77" s="122">
-        <v>5</v>
-      </c>
-      <c r="D77" s="102"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="91"/>
-      <c r="G77" s="91"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="J77" s="153">
-        <v>0.5</v>
-      </c>
-      <c r="K77" s="38"/>
+      <c r="B77" s="79"/>
+      <c r="C77" s="80">
+        <v>4</v>
+      </c>
+      <c r="D77" s="101"/>
+      <c r="E77" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77" s="92"/>
+      <c r="G77" s="92"/>
+      <c r="H77" s="85"/>
+      <c r="I77" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="J77" s="142">
+        <v>1</v>
+      </c>
+      <c r="K77" s="83"/>
       <c r="L77" s="57"/>
       <c r="M77" s="52"/>
       <c r="N77" s="53"/>
       <c r="O77" s="54"/>
       <c r="P77" s="55"/>
-      <c r="Q77" s="141"/>
-      <c r="R77" s="150"/>
+      <c r="Q77" s="129"/>
+      <c r="R77" s="138"/>
       <c r="S77" s="55"/>
       <c r="T77" s="52"/>
       <c r="U77" s="52"/>
@@ -5610,23 +5532,33 @@
       <c r="AV77" s="56"/>
     </row>
     <row r="78" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="126"/>
-      <c r="C78" s="122"/>
+      <c r="B78" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="110">
+        <v>4</v>
+      </c>
       <c r="D78" s="102"/>
       <c r="E78" s="65"/>
-      <c r="F78" s="91"/>
+      <c r="F78" s="91" t="s">
+        <v>49</v>
+      </c>
       <c r="G78" s="91"/>
       <c r="H78" s="66"/>
-      <c r="I78" s="124"/>
-      <c r="J78" s="125"/>
+      <c r="I78" s="118" t="s">
+        <v>63</v>
+      </c>
+      <c r="J78" s="141">
+        <v>1</v>
+      </c>
       <c r="K78" s="38"/>
       <c r="L78" s="57"/>
       <c r="M78" s="52"/>
       <c r="N78" s="53"/>
       <c r="O78" s="54"/>
       <c r="P78" s="55"/>
-      <c r="Q78" s="141"/>
-      <c r="R78" s="150"/>
+      <c r="Q78" s="129"/>
+      <c r="R78" s="138"/>
       <c r="S78" s="55"/>
       <c r="T78" s="52"/>
       <c r="U78" s="52"/>
@@ -5659,23 +5591,31 @@
       <c r="AV78" s="56"/>
     </row>
     <row r="79" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="126"/>
-      <c r="C79" s="122"/>
-      <c r="D79" s="102"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="91"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="124"/>
-      <c r="J79" s="125"/>
-      <c r="K79" s="38"/>
+      <c r="B79" s="79"/>
+      <c r="C79" s="80">
+        <v>5</v>
+      </c>
+      <c r="D79" s="101"/>
+      <c r="E79" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="F79" s="92"/>
+      <c r="G79" s="92"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="J79" s="142">
+        <v>0.5</v>
+      </c>
+      <c r="K79" s="83"/>
       <c r="L79" s="57"/>
       <c r="M79" s="52"/>
       <c r="N79" s="53"/>
       <c r="O79" s="54"/>
       <c r="P79" s="55"/>
-      <c r="Q79" s="141"/>
-      <c r="R79" s="150"/>
+      <c r="Q79" s="129"/>
+      <c r="R79" s="138"/>
       <c r="S79" s="55"/>
       <c r="T79" s="52"/>
       <c r="U79" s="52"/>
@@ -5707,54 +5647,209 @@
       <c r="AU79" s="55"/>
       <c r="AV79" s="56"/>
     </row>
-    <row r="80" spans="2:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="152"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="103"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="93"/>
-      <c r="G80" s="93"/>
-      <c r="H80" s="70"/>
-      <c r="I80" s="108"/>
-      <c r="J80" s="98"/>
-      <c r="K80" s="71"/>
-      <c r="L80" s="72"/>
-      <c r="M80" s="73"/>
-      <c r="N80" s="74"/>
-      <c r="O80" s="75"/>
-      <c r="P80" s="76"/>
-      <c r="Q80" s="142"/>
-      <c r="R80" s="151"/>
-      <c r="S80" s="76"/>
-      <c r="T80" s="73"/>
-      <c r="U80" s="73"/>
-      <c r="V80" s="76"/>
-      <c r="W80" s="76"/>
-      <c r="X80" s="76"/>
-      <c r="Y80" s="76"/>
-      <c r="Z80" s="76"/>
-      <c r="AA80" s="73"/>
-      <c r="AB80" s="73"/>
-      <c r="AC80" s="75"/>
-      <c r="AD80" s="76"/>
-      <c r="AE80" s="76"/>
-      <c r="AF80" s="76"/>
-      <c r="AG80" s="76"/>
-      <c r="AH80" s="74"/>
-      <c r="AI80" s="73"/>
-      <c r="AJ80" s="75"/>
-      <c r="AK80" s="76"/>
-      <c r="AL80" s="76"/>
-      <c r="AM80" s="76"/>
-      <c r="AN80" s="76"/>
-      <c r="AO80" s="77"/>
-      <c r="AP80" s="73"/>
-      <c r="AQ80" s="78"/>
-      <c r="AR80" s="76"/>
-      <c r="AS80" s="72"/>
-      <c r="AT80" s="76"/>
-      <c r="AU80" s="76"/>
-      <c r="AV80" s="77"/>
+    <row r="80" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="110">
+        <v>5</v>
+      </c>
+      <c r="D80" s="102"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="91"/>
+      <c r="G80" s="91"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="J80" s="141">
+        <v>0.5</v>
+      </c>
+      <c r="K80" s="38"/>
+      <c r="L80" s="57"/>
+      <c r="M80" s="52"/>
+      <c r="N80" s="53"/>
+      <c r="O80" s="54"/>
+      <c r="P80" s="55"/>
+      <c r="Q80" s="129"/>
+      <c r="R80" s="138"/>
+      <c r="S80" s="55"/>
+      <c r="T80" s="52"/>
+      <c r="U80" s="52"/>
+      <c r="V80" s="55"/>
+      <c r="W80" s="55"/>
+      <c r="X80" s="55"/>
+      <c r="Y80" s="55"/>
+      <c r="Z80" s="55"/>
+      <c r="AA80" s="52"/>
+      <c r="AB80" s="52"/>
+      <c r="AC80" s="54"/>
+      <c r="AD80" s="55"/>
+      <c r="AE80" s="55"/>
+      <c r="AF80" s="55"/>
+      <c r="AG80" s="55"/>
+      <c r="AH80" s="53"/>
+      <c r="AI80" s="52"/>
+      <c r="AJ80" s="54"/>
+      <c r="AK80" s="55"/>
+      <c r="AL80" s="55"/>
+      <c r="AM80" s="55"/>
+      <c r="AN80" s="55"/>
+      <c r="AO80" s="56"/>
+      <c r="AP80" s="52"/>
+      <c r="AQ80" s="58"/>
+      <c r="AR80" s="55"/>
+      <c r="AS80" s="57"/>
+      <c r="AT80" s="55"/>
+      <c r="AU80" s="55"/>
+      <c r="AV80" s="56"/>
+    </row>
+    <row r="81" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="114"/>
+      <c r="C81" s="110"/>
+      <c r="D81" s="102"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="91"/>
+      <c r="G81" s="91"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="112"/>
+      <c r="J81" s="113"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="52"/>
+      <c r="N81" s="53"/>
+      <c r="O81" s="54"/>
+      <c r="P81" s="55"/>
+      <c r="Q81" s="129"/>
+      <c r="R81" s="138"/>
+      <c r="S81" s="55"/>
+      <c r="T81" s="52"/>
+      <c r="U81" s="52"/>
+      <c r="V81" s="55"/>
+      <c r="W81" s="55"/>
+      <c r="X81" s="55"/>
+      <c r="Y81" s="55"/>
+      <c r="Z81" s="55"/>
+      <c r="AA81" s="52"/>
+      <c r="AB81" s="52"/>
+      <c r="AC81" s="54"/>
+      <c r="AD81" s="55"/>
+      <c r="AE81" s="55"/>
+      <c r="AF81" s="55"/>
+      <c r="AG81" s="55"/>
+      <c r="AH81" s="53"/>
+      <c r="AI81" s="52"/>
+      <c r="AJ81" s="54"/>
+      <c r="AK81" s="55"/>
+      <c r="AL81" s="55"/>
+      <c r="AM81" s="55"/>
+      <c r="AN81" s="55"/>
+      <c r="AO81" s="56"/>
+      <c r="AP81" s="52"/>
+      <c r="AQ81" s="58"/>
+      <c r="AR81" s="55"/>
+      <c r="AS81" s="57"/>
+      <c r="AT81" s="55"/>
+      <c r="AU81" s="55"/>
+      <c r="AV81" s="56"/>
+    </row>
+    <row r="82" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="114"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="102"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="91"/>
+      <c r="G82" s="91"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="112"/>
+      <c r="J82" s="113"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="57"/>
+      <c r="M82" s="52"/>
+      <c r="N82" s="53"/>
+      <c r="O82" s="54"/>
+      <c r="P82" s="55"/>
+      <c r="Q82" s="129"/>
+      <c r="R82" s="138"/>
+      <c r="S82" s="55"/>
+      <c r="T82" s="52"/>
+      <c r="U82" s="52"/>
+      <c r="V82" s="55"/>
+      <c r="W82" s="55"/>
+      <c r="X82" s="55"/>
+      <c r="Y82" s="55"/>
+      <c r="Z82" s="55"/>
+      <c r="AA82" s="52"/>
+      <c r="AB82" s="52"/>
+      <c r="AC82" s="54"/>
+      <c r="AD82" s="55"/>
+      <c r="AE82" s="55"/>
+      <c r="AF82" s="55"/>
+      <c r="AG82" s="55"/>
+      <c r="AH82" s="53"/>
+      <c r="AI82" s="52"/>
+      <c r="AJ82" s="54"/>
+      <c r="AK82" s="55"/>
+      <c r="AL82" s="55"/>
+      <c r="AM82" s="55"/>
+      <c r="AN82" s="55"/>
+      <c r="AO82" s="56"/>
+      <c r="AP82" s="52"/>
+      <c r="AQ82" s="58"/>
+      <c r="AR82" s="55"/>
+      <c r="AS82" s="57"/>
+      <c r="AT82" s="55"/>
+      <c r="AU82" s="55"/>
+      <c r="AV82" s="56"/>
+    </row>
+    <row r="83" spans="2:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="140"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="103"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="93"/>
+      <c r="H83" s="70"/>
+      <c r="I83" s="108"/>
+      <c r="J83" s="98"/>
+      <c r="K83" s="71"/>
+      <c r="L83" s="72"/>
+      <c r="M83" s="73"/>
+      <c r="N83" s="74"/>
+      <c r="O83" s="75"/>
+      <c r="P83" s="76"/>
+      <c r="Q83" s="130"/>
+      <c r="R83" s="139"/>
+      <c r="S83" s="76"/>
+      <c r="T83" s="73"/>
+      <c r="U83" s="73"/>
+      <c r="V83" s="76"/>
+      <c r="W83" s="76"/>
+      <c r="X83" s="76"/>
+      <c r="Y83" s="76"/>
+      <c r="Z83" s="76"/>
+      <c r="AA83" s="73"/>
+      <c r="AB83" s="73"/>
+      <c r="AC83" s="75"/>
+      <c r="AD83" s="76"/>
+      <c r="AE83" s="76"/>
+      <c r="AF83" s="76"/>
+      <c r="AG83" s="76"/>
+      <c r="AH83" s="74"/>
+      <c r="AI83" s="73"/>
+      <c r="AJ83" s="75"/>
+      <c r="AK83" s="76"/>
+      <c r="AL83" s="76"/>
+      <c r="AM83" s="76"/>
+      <c r="AN83" s="76"/>
+      <c r="AO83" s="77"/>
+      <c r="AP83" s="73"/>
+      <c r="AQ83" s="78"/>
+      <c r="AR83" s="76"/>
+      <c r="AS83" s="72"/>
+      <c r="AT83" s="76"/>
+      <c r="AU83" s="76"/>
+      <c r="AV83" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5768,104 +5863,4 @@
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AF3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A2" s="110" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="111"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="111"/>
-      <c r="AE2" s="111"/>
-      <c r="AF2" s="111" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A3" s="115" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="116" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="116"/>
-      <c r="V3" s="118"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>